--- a/template_examples/clinical_data_template.xlsx
+++ b/template_examples/clinical_data_template.xlsx
@@ -94,7 +94,7 @@
     <t xml:space="preserve">#title</t>
   </si>
   <si>
-    <t xml:space="preserve">Metadata file for clincal data</t>
+    <t xml:space="preserve">Metadata file for clinical data</t>
   </si>
   <si>
     <t xml:space="preserve">#preamble</t>
@@ -437,10 +437,10 @@
   <dimension ref="A1:E2006"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="1" style="0" width="30.7"/>
   </cols>
@@ -12563,7 +12563,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
@@ -12672,7 +12672,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="101" min="2" style="0" width="30.7"/>
   </cols>
